--- a/Documents/タスクリスト.xlsx
+++ b/Documents/タスクリスト.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10428"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="メインタスク" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>キャラクター</t>
     <phoneticPr fontId="1"/>
@@ -304,6 +304,36 @@
     <t>LUA化</t>
     <rPh sb="3" eb="4">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の動作一覧</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの動作一覧</t>
+    <rPh sb="6" eb="8">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクトの種類</t>
+    <rPh sb="7" eb="9">
+      <t>シュルイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -789,37 +819,184 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -828,173 +1005,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1278,282 +1308,288 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:K17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
-      <c r="M2" s="42" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
+      <c r="M2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="36"/>
     </row>
     <row r="3" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="21" t="s">
+      <c r="C3" s="69"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="M3" s="39" t="s">
+      <c r="K3" s="31"/>
+      <c r="M3" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="59"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="33"/>
     </row>
     <row r="4" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="M4" s="34" t="s">
+      <c r="K4" s="41"/>
+      <c r="M4" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="62"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="19"/>
     </row>
     <row r="5" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="M5" s="34" t="s">
+      <c r="K5" s="29"/>
+      <c r="M5" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="62"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="19"/>
     </row>
     <row r="6" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="8"/>
-      <c r="M6" s="34" t="s">
+      <c r="I6" s="1"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="29"/>
+      <c r="M6" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="19"/>
+    </row>
+    <row r="7" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="29"/>
+      <c r="M7" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="62"/>
-    </row>
-    <row r="7" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="8"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="62"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="19"/>
     </row>
     <row r="8" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="20"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="20" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="8"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="62"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29"/>
+      <c r="M8" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="19"/>
     </row>
     <row r="9" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="20"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="8"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="62"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
+      <c r="M9" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="19"/>
     </row>
     <row r="10" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="20"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="8"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="62"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="19"/>
     </row>
     <row r="11" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="12"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="56"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="31"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="22"/>
     </row>
     <row r="13" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
@@ -1561,405 +1597,454 @@
       </c>
     </row>
     <row r="14" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14" t="s">
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14" t="s">
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14" t="s">
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="13" t="s">
+      <c r="M14" s="63"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14" t="s">
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="S14" s="14"/>
-      <c r="T14" s="15"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="70"/>
     </row>
     <row r="15" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="4" t="s">
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="67" t="s">
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="58"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="4" t="s">
+      <c r="J15" s="26"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="45"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="65"/>
     </row>
     <row r="16" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="7"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
+      <c r="C16" s="57"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="65" t="s">
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="61"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="46"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="56"/>
     </row>
     <row r="17" spans="3:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="7"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="65" t="s">
+      <c r="C17" s="57"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="61"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="46"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="56"/>
     </row>
     <row r="18" spans="3:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="7"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="46"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="56"/>
     </row>
     <row r="19" spans="3:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="7"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="46"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="56"/>
     </row>
     <row r="20" spans="3:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="7"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="46"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="56"/>
     </row>
     <row r="21" spans="3:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="7"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="46"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="56"/>
     </row>
     <row r="22" spans="3:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="7"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="46"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="56"/>
     </row>
     <row r="23" spans="3:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="7"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="46"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="56"/>
     </row>
     <row r="24" spans="3:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="7"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="46"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="56"/>
     </row>
     <row r="25" spans="3:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="7"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="46"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="56"/>
     </row>
     <row r="26" spans="3:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="7"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="46"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="56"/>
     </row>
     <row r="27" spans="3:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="7"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="46"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="56"/>
     </row>
     <row r="28" spans="3:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="7"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="46"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="56"/>
     </row>
     <row r="29" spans="3:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="7"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="46"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="56"/>
     </row>
     <row r="30" spans="3:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="47"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="F14:H14"/>
     <mergeCell ref="M6:P6"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
     <mergeCell ref="R30:T30"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="R24:T24"/>
@@ -1980,90 +2065,41 @@
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="I29:K29"/>
     <mergeCell ref="I30:K30"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
     <mergeCell ref="O27:Q27"/>
     <mergeCell ref="O28:Q28"/>
     <mergeCell ref="O29:Q29"/>
     <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
